--- a/src/_inputs/data/operation_data.xlsx
+++ b/src/_inputs/data/operation_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vibration Lab\Desktop\new Dshboard\GUI_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shekhar's\source\repos\iitk\vyas_iitkDashboard\webI4Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8101E-040C-4AFC-948A-58D27565A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B0C51-08F4-4AE7-B464-3940C3D2C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ewl_operation_components" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="167">
   <si>
     <t>Operation</t>
   </si>
@@ -539,47 +539,17 @@
     <t>SH0120</t>
   </si>
   <si>
-    <t>SH0110,SH0120,SH0130,SH0140,SH0150,SH0160,SH0170,SH0180,SH0190</t>
-  </si>
-  <si>
-    <t>SH0200</t>
-  </si>
-  <si>
-    <t>SH0130</t>
-  </si>
-  <si>
-    <t>SH0140</t>
-  </si>
-  <si>
-    <t>SH0150</t>
-  </si>
-  <si>
-    <t>SH0160</t>
-  </si>
-  <si>
-    <t>SH0170</t>
-  </si>
-  <si>
-    <t>SH0180</t>
-  </si>
-  <si>
-    <t>SH0190</t>
+    <t>Inventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,8 +575,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,15 +863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,11 +887,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -934,8 +913,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -954,8 +936,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -974,8 +959,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -994,8 +982,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1005,11 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1028,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1051,11 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1071,11 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1094,11 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1111,8 +1117,11 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1131,8 +1140,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1151,8 +1163,11 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1170,6 +1185,9 @@
       </c>
       <c r="F14">
         <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1179,15 +1197,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C13F7CA-57ED-4B41-8B37-A1ECED6681BF}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,17 +1222,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1217,7 +1245,7 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1226,8 +1254,11 @@
       <c r="F2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1237,7 +1268,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1246,8 +1277,11 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -1257,7 +1291,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -1266,8 +1300,11 @@
       <c r="F4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -1277,7 +1314,7 @@
       <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -1286,8 +1323,11 @@
       <c r="F5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -1297,7 +1337,7 @@
       <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -1306,8 +1346,11 @@
       <c r="F6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -1317,7 +1360,7 @@
       <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -1326,8 +1369,11 @@
       <c r="F7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -1337,7 +1383,7 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -1346,8 +1392,11 @@
       <c r="F8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -1357,7 +1406,7 @@
       <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -1366,8 +1415,11 @@
       <c r="F9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1377,7 +1429,7 @@
       <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" t="s">
@@ -1386,8 +1438,11 @@
       <c r="F10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1397,7 +1452,7 @@
       <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" t="s">
@@ -1406,8 +1461,11 @@
       <c r="F11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -1417,7 +1475,7 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -1426,8 +1484,11 @@
       <c r="F12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1437,7 +1498,7 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -1446,8 +1507,11 @@
       <c r="F13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1457,7 +1521,7 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -1466,8 +1530,11 @@
       <c r="F14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -1477,7 +1544,7 @@
       <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -1486,8 +1553,11 @@
       <c r="F15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -1497,7 +1567,7 @@
       <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" t="s">
@@ -1506,8 +1576,11 @@
       <c r="F16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1517,7 +1590,7 @@
       <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -1526,8 +1599,11 @@
       <c r="F17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -1537,7 +1613,7 @@
       <c r="C18" t="s">
         <v>105</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" t="s">
@@ -1546,8 +1622,11 @@
       <c r="F18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1557,7 +1636,7 @@
       <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" t="s">
@@ -1566,8 +1645,11 @@
       <c r="F19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -1577,7 +1659,7 @@
       <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -1586,8 +1668,11 @@
       <c r="F20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -1597,7 +1682,7 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" t="s">
@@ -1606,8 +1691,11 @@
       <c r="F21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -1617,7 +1705,7 @@
       <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" t="s">
@@ -1626,8 +1714,11 @@
       <c r="F22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1637,7 +1728,7 @@
       <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" t="s">
@@ -1646,8 +1737,11 @@
       <c r="F23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -1657,7 +1751,7 @@
       <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -1666,8 +1760,11 @@
       <c r="F24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -1677,7 +1774,7 @@
       <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" t="s">
@@ -1686,8 +1783,11 @@
       <c r="F25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -1697,7 +1797,7 @@
       <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -1706,8 +1806,11 @@
       <c r="F26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -1717,7 +1820,7 @@
       <c r="C27" t="s">
         <v>99</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" t="s">
@@ -1726,8 +1829,11 @@
       <c r="F27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -1737,7 +1843,7 @@
       <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -1746,8 +1852,11 @@
       <c r="F28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -1757,7 +1866,7 @@
       <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" t="s">
@@ -1766,8 +1875,11 @@
       <c r="F29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -1777,7 +1889,7 @@
       <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" t="s">
@@ -1786,8 +1898,11 @@
       <c r="F30" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -1797,7 +1912,7 @@
       <c r="C31" t="s">
         <v>109</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" t="s">
@@ -1806,8 +1921,11 @@
       <c r="F31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -1817,7 +1935,7 @@
       <c r="C32" t="s">
         <v>111</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" t="s">
@@ -1826,8 +1944,11 @@
       <c r="F32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1837,7 +1958,7 @@
       <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" t="s">
@@ -1846,8 +1967,11 @@
       <c r="F33" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -1857,7 +1981,7 @@
       <c r="C34" t="s">
         <v>115</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" t="s">
@@ -1866,8 +1990,11 @@
       <c r="F34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -1877,7 +2004,7 @@
       <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" t="s">
@@ -1886,8 +2013,11 @@
       <c r="F35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -1897,7 +2027,7 @@
       <c r="C36" t="s">
         <v>129</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" t="s">
@@ -1906,8 +2036,11 @@
       <c r="F36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -1917,7 +2050,7 @@
       <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" t="s">
@@ -1926,8 +2059,11 @@
       <c r="F37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -1937,7 +2073,7 @@
       <c r="C38" t="s">
         <v>129</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" t="s">
@@ -1946,8 +2082,11 @@
       <c r="F38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -1957,7 +2096,7 @@
       <c r="C39" t="s">
         <v>129</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" t="s">
@@ -1966,8 +2105,11 @@
       <c r="F39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -1977,7 +2119,7 @@
       <c r="C40" t="s">
         <v>129</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" t="s">
@@ -1986,8 +2128,11 @@
       <c r="F40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -1997,7 +2142,7 @@
       <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" t="s">
@@ -2006,15 +2151,18 @@
       <c r="F41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>134</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" t="s">
@@ -2023,15 +2171,18 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" t="s">
@@ -2040,15 +2191,18 @@
       <c r="F43" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" t="s">
@@ -2057,8 +2211,11 @@
       <c r="F44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -2068,7 +2225,7 @@
       <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" t="s">
@@ -2077,15 +2234,18 @@
       <c r="F45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" t="s">
@@ -2094,15 +2254,18 @@
       <c r="F46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>153</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
@@ -2111,15 +2274,18 @@
       <c r="F47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>153</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" t="s">
@@ -2128,15 +2294,18 @@
       <c r="F48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" t="s">
@@ -2145,15 +2314,18 @@
       <c r="F49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>137</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" t="s">
@@ -2162,8 +2334,11 @@
       <c r="F50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2173,7 +2348,7 @@
       <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" t="s">
@@ -2182,8 +2357,11 @@
       <c r="F51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -2193,7 +2371,7 @@
       <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>1</v>
       </c>
       <c r="E52" t="s">
@@ -2202,15 +2380,18 @@
       <c r="F52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>144</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" t="s">
@@ -2219,15 +2400,18 @@
       <c r="F53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>144</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>1</v>
       </c>
       <c r="E54" t="s">
@@ -2236,15 +2420,18 @@
       <c r="F54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>157</v>
       </c>
       <c r="B55" t="s">
         <v>137</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" t="s">
@@ -2253,8 +2440,11 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -2264,7 +2454,7 @@
       <c r="C56" t="s">
         <v>142</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
@@ -2273,15 +2463,18 @@
       <c r="F56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" t="s">
@@ -2290,8 +2483,11 @@
       <c r="F57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -2301,7 +2497,7 @@
       <c r="C58" t="s">
         <v>159</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>1</v>
       </c>
       <c r="E58" t="s">
@@ -2309,6 +2505,9 @@
       </c>
       <c r="F58" t="s">
         <v>77</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3027,15 +3226,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103B4DF4-55F6-4E4A-B1F3-A66B2526CD37}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3051,11 +3250,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -3074,8 +3276,11 @@
       <c r="F2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3094,8 +3299,11 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -3114,8 +3322,11 @@
       <c r="F4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -3134,8 +3345,11 @@
       <c r="F5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -3151,8 +3365,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -3168,8 +3385,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -3184,6 +3404,9 @@
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F9EEFC-98C8-44C1-B166-556B05E9DB00}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3225,105 +3448,16 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
       </c>
       <c r="C3">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3332,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80072F1-68C2-442B-8FD3-967F1A342D23}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3375,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3392,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3409,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3426,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3440,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3700,15 +3834,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B3400-484C-4A8F-875F-E88BAE3775F7}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3724,11 +3858,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3747,8 +3884,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3767,8 +3907,11 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3787,8 +3930,11 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3807,8 +3953,11 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3824,8 +3973,11 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3841,8 +3993,11 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3858,8 +4013,11 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3875,8 +4033,11 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3892,8 +4053,11 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3909,8 +4073,11 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3926,8 +4093,11 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3945,6 +4115,9 @@
       </c>
       <c r="F13">
         <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4169,15 +4342,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB62FE0-AAA4-46B9-9A14-F35B415567A0}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4193,11 +4366,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -4216,8 +4392,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4236,8 +4415,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4253,8 +4435,11 @@
       <c r="F4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4270,8 +4455,11 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4287,8 +4475,11 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -4304,8 +4495,11 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -4321,8 +4515,11 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -4341,8 +4538,11 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4358,8 +4558,11 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -4375,8 +4578,11 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -4392,8 +4598,11 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -4412,8 +4621,11 @@
       <c r="F13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4432,8 +4644,11 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4452,8 +4667,11 @@
       <c r="F15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4471,6 +4689,9 @@
       </c>
       <c r="F16" t="s">
         <v>23</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/_inputs/data/operation_data.xlsx
+++ b/src/_inputs/data/operation_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shekhar's\source\repos\iitk\vyas_iitkDashboard\webI4Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vibration Lab\Desktop\new Dshboard\GUI_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B0C51-08F4-4AE7-B464-3940C3D2C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8101E-040C-4AFC-948A-58D27565A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ewl_operation_components" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="175">
   <si>
     <t>Operation</t>
   </si>
@@ -539,17 +539,47 @@
     <t>SH0120</t>
   </si>
   <si>
-    <t>Inventory</t>
+    <t>SH0110,SH0120,SH0130,SH0140,SH0150,SH0160,SH0170,SH0180,SH0190</t>
+  </si>
+  <si>
+    <t>SH0200</t>
+  </si>
+  <si>
+    <t>SH0130</t>
+  </si>
+  <si>
+    <t>SH0140</t>
+  </si>
+  <si>
+    <t>SH0150</t>
+  </si>
+  <si>
+    <t>SH0160</t>
+  </si>
+  <si>
+    <t>SH0170</t>
+  </si>
+  <si>
+    <t>SH0180</t>
+  </si>
+  <si>
+    <t>SH0190</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,14 +605,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,15 +887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,14 +911,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -913,11 +934,8 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -936,11 +954,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -959,11 +974,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -982,11 +994,8 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1005,11 +1014,8 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1028,11 +1034,8 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1051,11 +1054,8 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1071,11 +1071,8 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1094,11 +1091,8 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1117,11 +1111,8 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1140,11 +1131,8 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1163,11 +1151,8 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1185,9 +1170,6 @@
       </c>
       <c r="F14">
         <v>5</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1197,22 +1179,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C13F7CA-57ED-4B41-8B37-A1ECED6681BF}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="41.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,20 +1197,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1245,7 +1217,7 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1254,11 +1226,8 @@
       <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1268,7 +1237,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1277,11 +1246,8 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -1291,7 +1257,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -1300,11 +1266,8 @@
       <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -1314,7 +1277,7 @@
       <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -1323,11 +1286,8 @@
       <c r="F5" t="s">
         <v>97</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -1337,7 +1297,7 @@
       <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -1346,11 +1306,8 @@
       <c r="F6" t="s">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -1360,7 +1317,7 @@
       <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -1369,11 +1326,8 @@
       <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -1383,7 +1337,7 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -1392,11 +1346,8 @@
       <c r="F8" t="s">
         <v>106</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -1406,7 +1357,7 @@
       <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -1415,11 +1366,8 @@
       <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1429,7 +1377,7 @@
       <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
@@ -1438,11 +1386,8 @@
       <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1452,7 +1397,7 @@
       <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
@@ -1461,11 +1406,8 @@
       <c r="F11" t="s">
         <v>112</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -1475,7 +1417,7 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -1484,11 +1426,8 @@
       <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1498,7 +1437,7 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -1507,11 +1446,8 @@
       <c r="F13" t="s">
         <v>116</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1521,7 +1457,7 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -1530,11 +1466,8 @@
       <c r="F14" t="s">
         <v>118</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -1544,7 +1477,7 @@
       <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -1553,11 +1486,8 @@
       <c r="F15" t="s">
         <v>119</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -1567,7 +1497,7 @@
       <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
@@ -1576,11 +1506,8 @@
       <c r="F16" t="s">
         <v>120</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1590,7 +1517,7 @@
       <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -1599,11 +1526,8 @@
       <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -1613,7 +1537,7 @@
       <c r="C18" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
@@ -1622,11 +1546,8 @@
       <c r="F18" t="s">
         <v>122</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1636,7 +1557,7 @@
       <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
@@ -1645,11 +1566,8 @@
       <c r="F19" t="s">
         <v>123</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -1659,7 +1577,7 @@
       <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -1668,11 +1586,8 @@
       <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -1682,7 +1597,7 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
@@ -1691,11 +1606,8 @@
       <c r="F21" t="s">
         <v>125</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -1705,7 +1617,7 @@
       <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
@@ -1714,11 +1626,8 @@
       <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1728,7 +1637,7 @@
       <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
@@ -1737,11 +1646,8 @@
       <c r="F23" t="s">
         <v>127</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -1751,7 +1657,7 @@
       <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -1760,11 +1666,8 @@
       <c r="F24" t="s">
         <v>116</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -1774,7 +1677,7 @@
       <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
@@ -1783,11 +1686,8 @@
       <c r="F25" t="s">
         <v>118</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -1797,7 +1697,7 @@
       <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -1806,11 +1706,8 @@
       <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -1820,7 +1717,7 @@
       <c r="C27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
@@ -1829,11 +1726,8 @@
       <c r="F27" t="s">
         <v>120</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -1843,7 +1737,7 @@
       <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -1852,11 +1746,8 @@
       <c r="F28" t="s">
         <v>121</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -1866,7 +1757,7 @@
       <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
@@ -1875,11 +1766,8 @@
       <c r="F29" t="s">
         <v>122</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -1889,7 +1777,7 @@
       <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
@@ -1898,11 +1786,8 @@
       <c r="F30" t="s">
         <v>123</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -1912,7 +1797,7 @@
       <c r="C31" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
@@ -1921,11 +1806,8 @@
       <c r="F31" t="s">
         <v>124</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -1935,7 +1817,7 @@
       <c r="C32" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
@@ -1944,11 +1826,8 @@
       <c r="F32" t="s">
         <v>125</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1958,7 +1837,7 @@
       <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
@@ -1967,11 +1846,8 @@
       <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -1981,7 +1857,7 @@
       <c r="C34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
@@ -1990,11 +1866,8 @@
       <c r="F34" t="s">
         <v>127</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -2004,7 +1877,7 @@
       <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
@@ -2013,11 +1886,8 @@
       <c r="F35" t="s">
         <v>46</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -2027,7 +1897,7 @@
       <c r="C36" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
@@ -2036,11 +1906,8 @@
       <c r="F36" t="s">
         <v>46</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -2050,7 +1917,7 @@
       <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
@@ -2059,11 +1926,8 @@
       <c r="F37" t="s">
         <v>46</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -2073,7 +1937,7 @@
       <c r="C38" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
@@ -2082,11 +1946,8 @@
       <c r="F38" t="s">
         <v>46</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -2096,7 +1957,7 @@
       <c r="C39" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
@@ -2105,11 +1966,8 @@
       <c r="F39" t="s">
         <v>46</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -2119,7 +1977,7 @@
       <c r="C40" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
@@ -2128,11 +1986,8 @@
       <c r="F40" t="s">
         <v>46</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -2142,7 +1997,7 @@
       <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
@@ -2151,18 +2006,15 @@
       <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
@@ -2171,18 +2023,15 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
@@ -2191,18 +2040,15 @@
       <c r="F43" t="s">
         <v>136</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
@@ -2211,11 +2057,8 @@
       <c r="F44" t="s">
         <v>136</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -2225,7 +2068,7 @@
       <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
@@ -2234,18 +2077,15 @@
       <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
@@ -2254,18 +2094,15 @@
       <c r="F46" t="s">
         <v>50</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>153</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
@@ -2274,18 +2111,15 @@
       <c r="F47" t="s">
         <v>50</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>153</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
@@ -2294,18 +2128,15 @@
       <c r="F48" t="s">
         <v>50</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
@@ -2314,18 +2145,15 @@
       <c r="F49" t="s">
         <v>50</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
@@ -2334,11 +2162,8 @@
       <c r="F50" t="s">
         <v>50</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2348,7 +2173,7 @@
       <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
@@ -2357,11 +2182,8 @@
       <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -2371,7 +2193,7 @@
       <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
@@ -2380,18 +2202,15 @@
       <c r="F52" t="s">
         <v>53</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
@@ -2400,18 +2219,15 @@
       <c r="F53" t="s">
         <v>20</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
@@ -2420,18 +2236,15 @@
       <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>157</v>
       </c>
       <c r="B55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
@@ -2440,11 +2253,8 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -2454,7 +2264,7 @@
       <c r="C56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
@@ -2463,18 +2273,15 @@
       <c r="F56" t="s">
         <v>53</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
@@ -2483,11 +2290,8 @@
       <c r="F57" t="s">
         <v>54</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -2497,7 +2301,7 @@
       <c r="C58" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
@@ -2505,9 +2309,6 @@
       </c>
       <c r="F58" t="s">
         <v>77</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3226,15 +3027,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103B4DF4-55F6-4E4A-B1F3-A66B2526CD37}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3250,14 +3051,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -3276,11 +3074,8 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3299,11 +3094,8 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -3322,11 +3114,8 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -3345,11 +3134,8 @@
       <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -3365,11 +3151,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -3385,11 +3168,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -3404,9 +3184,6 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3416,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F9EEFC-98C8-44C1-B166-556B05E9DB00}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3448,16 +3225,105 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
       </c>
       <c r="C3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11">
         <v>120</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3466,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80072F1-68C2-442B-8FD3-967F1A342D23}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3509,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3526,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3543,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3560,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3574,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3834,15 +3700,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B3400-484C-4A8F-875F-E88BAE3775F7}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3858,14 +3724,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3884,11 +3747,8 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3907,11 +3767,8 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3930,11 +3787,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3953,11 +3807,8 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3973,11 +3824,8 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3993,11 +3841,8 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4013,11 +3858,8 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4033,11 +3875,8 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4053,11 +3892,8 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4073,11 +3909,8 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4093,11 +3926,8 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -4115,9 +3945,6 @@
       </c>
       <c r="F13">
         <v>6</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4342,15 +4169,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB62FE0-AAA4-46B9-9A14-F35B415567A0}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4366,14 +4193,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -4392,11 +4216,8 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4415,11 +4236,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4435,11 +4253,8 @@
       <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4455,11 +4270,8 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4475,11 +4287,8 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -4495,11 +4304,8 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -4515,11 +4321,8 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -4538,11 +4341,8 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4558,11 +4358,8 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -4578,11 +4375,8 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -4598,11 +4392,8 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -4621,11 +4412,8 @@
       <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4644,11 +4432,8 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4667,11 +4452,8 @@
       <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4689,9 +4471,6 @@
       </c>
       <c r="F16" t="s">
         <v>23</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
